--- a/Dati/19 gennaio/19 gennaio excel dati.xlsx
+++ b/Dati/19 gennaio/19 gennaio excel dati.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolò\Documents\GitHub\Astrofisica_nico\Dati\19 gennaio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5D166FE-89B2-4EB8-991E-6D7896454754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2139D8A-4CF8-4DEC-BD5E-657195510125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CF3E6C1-E296-48D8-B189-F1FC14310B4C}"/>
   </bookViews>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -145,10 +167,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E320F5B-DA88-448F-842E-020EF7CBF077}">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" topLeftCell="U2" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,7 +477,7 @@
     <col min="2" max="2" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>-20</v>
       </c>
@@ -535,8 +553,21 @@
       <c r="AA2" s="1">
         <v>104.74140319999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC2" cm="1">
+        <f t="array" ref="AC2:AC15">RADIANS(X2:X15)</f>
+        <v>-0.95993108859688125</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>3675.9696100000001</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>104.74140319999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>-25</v>
       </c>
@@ -598,8 +629,20 @@
       <c r="AA3" s="1">
         <v>89.855512739999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC3">
+        <v>-0.87266462599716477</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3625.614458</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>89.855512739999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>-30</v>
       </c>
@@ -661,8 +704,20 @@
       <c r="AA4" s="1">
         <v>28.231909980000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC4">
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>2915.5252289999999</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>28.231909980000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>-35</v>
       </c>
@@ -724,8 +779,20 @@
       <c r="AA5" s="1">
         <v>24.558618979999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC5">
+        <v>-0.69813170079773179</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3029.6689660000002</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>24.558618979999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>-40</v>
       </c>
@@ -787,8 +854,20 @@
       <c r="AA6" s="1">
         <v>41.53979357</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC6">
+        <v>-0.43633231299858238</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>2884.1202750000002</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>41.53979357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>-45</v>
       </c>
@@ -850,8 +929,20 @@
       <c r="AA7" s="1">
         <v>38.82704751</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC7">
+        <v>-0.3490658503988659</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>2700.784404</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>38.82704751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>-50</v>
       </c>
@@ -913,8 +1004,20 @@
       <c r="AA8" s="1">
         <v>38.894947549999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC8">
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="AD8">
+        <v>2700.784404</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>38.894947549999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>-55</v>
       </c>
@@ -976,8 +1079,20 @@
       <c r="AA9" s="1">
         <v>85.801468189999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC9">
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>2781.7830690000001</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>85.801468189999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -1035,8 +1150,20 @@
       <c r="AA10" s="1">
         <v>43.156915789999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC10">
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>2845.4603900000002</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>43.156915789999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1094,8 +1221,20 @@
       <c r="AA11" s="1">
         <v>54.755945179999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC11">
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>3028.6216680000002</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>54.755945179999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>30</v>
       </c>
@@ -1153,8 +1292,20 @@
       <c r="AA12" s="1">
         <v>74.147487190000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC12">
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>3172.2199310000001</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>74.147487190000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>35</v>
       </c>
@@ -1212,8 +1363,20 @@
       <c r="AA13" s="1">
         <v>47.958747119999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC13">
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>3129.9097160000001</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>47.958747119999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>40</v>
       </c>
@@ -1271,8 +1434,20 @@
       <c r="AA14" s="1">
         <v>37.698729360000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC14">
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>3796.3233019999998</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>37.698729360000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45</v>
       </c>
@@ -1330,8 +1505,20 @@
       <c r="AA15">
         <v>38.82704751</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC15">
+        <v>0.95993108859688125</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>3558.982818</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF15">
+        <v>38.82704751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>50</v>
       </c>
@@ -1378,7 +1565,7 @@
         <v>85.801468189999994</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>55</v>
       </c>
@@ -1413,6 +1600,446 @@
         <v>0.1</v>
       </c>
       <c r="V17" s="1">
+        <v>38.894947549999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M20" s="1">
+        <v>-55</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2700.784404</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>38.82704751</v>
+      </c>
+      <c r="S20">
+        <f>RADIANS(M20)</f>
+        <v>-0.95993108859688125</v>
+      </c>
+      <c r="T20" s="1">
+        <v>3675.9696100000001</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V20" s="1">
+        <v>38.82704751</v>
+      </c>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M21" s="1">
+        <v>-50</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2884.1202750000002</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>41.53979357</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ref="S21:S35" si="0">RADIANS(M21)</f>
+        <v>-0.87266462599716477</v>
+      </c>
+      <c r="T21" s="1">
+        <v>3625.614458</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V21" s="1">
+        <v>41.53979357</v>
+      </c>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M22" s="1">
+        <v>-45</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2914.0275860000002</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>45.839082189999999</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2915.5252289999999</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>45.839082189999999</v>
+      </c>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M23" s="1">
+        <v>-40</v>
+      </c>
+      <c r="N23" s="1">
+        <v>3083.2965519999998</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>39.349065379999999</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>-0.69813170079773179</v>
+      </c>
+      <c r="T23" s="1">
+        <v>3029.6689660000002</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V23" s="1">
+        <v>39.349065379999999</v>
+      </c>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M24" s="1">
+        <v>-35</v>
+      </c>
+      <c r="N24" s="1">
+        <v>3029.6689660000002</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>24.558618979999999</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>-0.6108652381980153</v>
+      </c>
+      <c r="T24" s="1">
+        <v>2884.1202750000002</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>24.558618979999999</v>
+      </c>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M25" s="1">
+        <v>-30</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2915.5252289999999</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>28.231909980000001</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="T25" s="1">
+        <v>2700.784404</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>28.231909980000001</v>
+      </c>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M26" s="1">
+        <v>-25</v>
+      </c>
+      <c r="N26" s="1">
+        <v>3625.614458</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>89.855512739999995</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>-0.43633231299858238</v>
+      </c>
+      <c r="T26" s="1">
+        <v>3625.614458</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V26" s="1">
+        <v>89.855512739999995</v>
+      </c>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M27" s="1">
+        <v>-20</v>
+      </c>
+      <c r="N27" s="1">
+        <v>3675.9696100000001</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>104.74140319999999</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>-0.3490658503988659</v>
+      </c>
+      <c r="T27" s="1">
+        <v>3675.9696100000001</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V27" s="1">
+        <v>104.74140319999999</v>
+      </c>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M28" s="1">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>2700.784404</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P28">
+        <v>38.82704751</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="T28">
+        <v>2700.784404</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V28">
+        <v>38.82704751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M29" s="1">
+        <v>25</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2781.7830690000001</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>37.698729360000002</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="T29" s="1">
+        <v>2781.7830690000001</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V29" s="1">
+        <v>37.698729360000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M30" s="1">
+        <v>30</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2845.4603900000002</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P30" s="1">
+        <v>47.958747119999998</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="T30" s="1">
+        <v>2845.4603900000002</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V30" s="1">
+        <v>47.958747119999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M31" s="1">
+        <v>35</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3028.6216680000002</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>74.147487190000007</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="T31" s="1">
+        <v>3028.6216680000002</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V31" s="1">
+        <v>74.147487190000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M32" s="1">
+        <v>40</v>
+      </c>
+      <c r="N32" s="1">
+        <v>3172.2199310000001</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>54.755945179999998</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="T32" s="1">
+        <v>3172.2199310000001</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V32" s="1">
+        <v>54.755945179999998</v>
+      </c>
+    </row>
+    <row r="33" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="M33" s="1">
+        <v>45</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3129.9097160000001</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P33" s="1">
+        <v>43.156915789999999</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="T33" s="1">
+        <v>3129.9097160000001</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V33" s="1">
+        <v>43.156915789999999</v>
+      </c>
+    </row>
+    <row r="34" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="M34" s="1">
+        <v>50</v>
+      </c>
+      <c r="N34" s="1">
+        <v>3796.3233019999998</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P34" s="1">
+        <v>85.801468189999994</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="T34" s="1">
+        <v>3796.3233019999998</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V34" s="1">
+        <v>85.801468189999994</v>
+      </c>
+    </row>
+    <row r="35" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="M35" s="1">
+        <v>55</v>
+      </c>
+      <c r="N35" s="1">
+        <v>3558.982818</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>38.894947549999998</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>0.95993108859688125</v>
+      </c>
+      <c r="T35" s="1">
+        <v>3558.982818</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V35" s="1">
         <v>38.894947549999998</v>
       </c>
     </row>
